--- a/medicine/Hématologie/Romiplostim/Romiplostim.xlsx
+++ b/medicine/Hématologie/Romiplostim/Romiplostim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le romiplostim est une protéine de fusion analogue à la thrombopoïétine (TPO), une hormone qui stimule la formation de plaquettes sanguines et la prolifération de leurs précurseurs (les mégacaryocytes).
@@ -512,12 +524,14 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le romiplostim est composé :
 d'un fragment Fc d'un anticorps IgG1 permettant d’accroître la demi-vie plasmatique de la molécule ;
 d'une chaine peptidique sans homologie de séquence avec la TPO mais qui se fixe sur le récepteur de la TPO (Tpo-R). Cette partie assure l'activité biologique de la protéine de fusion.
-Chaque sous-unité du domaine Fc de l'immunoglobuline est liée au niveau C-terminal de façon covalente à cette chaîne peptidique contenant deux domaines de liaison au récepteur à la TPO (Tpo-R)[1]. L'ensemble est appelé un peptibody ou pepticorps[Note 1].
+Chaque sous-unité du domaine Fc de l'immunoglobuline est liée au niveau C-terminal de façon covalente à cette chaîne peptidique contenant deux domaines de liaison au récepteur à la TPO (Tpo-R). L'ensemble est appelé un peptibody ou pepticorps[Note 1].
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Recherche et développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le romiplostim a été développé par l'entreprise américaine Amgen et mis sur le marché sous le nom commercial de Nplate[2]. Pendant sa période d'essai la molécule portait le nom de code AMG531[3].
-La Food and Drug Administration a donné son autorisation de mise sur le marché (AMM) du romiplostim (Nplate) pour le traitement des thombocytopénies chez les patients présentant un purpura thrombopénique idiopathique (PTI) le 22 août 2008[4].
-Le produit a obtenu une AMM européenne centralisée le 11 janvier 2010 avec un Plan de Gestion des Risques (PGR) européen[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le romiplostim a été développé par l'entreprise américaine Amgen et mis sur le marché sous le nom commercial de Nplate. Pendant sa période d'essai la molécule portait le nom de code AMG531.
+La Food and Drug Administration a donné son autorisation de mise sur le marché (AMM) du romiplostim (Nplate) pour le traitement des thombocytopénies chez les patients présentant un purpura thrombopénique idiopathique (PTI) le 22 août 2008.
+Le produit a obtenu une AMM européenne centralisée le 11 janvier 2010 avec un Plan de Gestion des Risques (PGR) européen.
 </t>
         </is>
       </c>
@@ -579,10 +595,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le romiplostim est indiqué dans le traitement du purpura thrombopénique idiopathique (PTI) chronique de l’adulte en échec aux traitements habituels (corticoïdes, immunoglobulines) chez les patients réfractaires à la splénectomie et chez les patients non splénectomisés mais auxquels la splénectomie ne peut être proposée[6].
-Selon une revue systématique de deux essais randomisés en double aveugle contrôlés par placebo, le romiplostim pourrait améliorer à la fois la réponse plaquettaire chez les enfants et les adolescents atteints de thrombocytopénie immunitaire pédiatrique[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le romiplostim est indiqué dans le traitement du purpura thrombopénique idiopathique (PTI) chronique de l’adulte en échec aux traitements habituels (corticoïdes, immunoglobulines) chez les patients réfractaires à la splénectomie et chez les patients non splénectomisés mais auxquels la splénectomie ne peut être proposée.
+Selon une revue systématique de deux essais randomisés en double aveugle contrôlés par placebo, le romiplostim pourrait améliorer à la fois la réponse plaquettaire chez les enfants et les adolescents atteints de thrombocytopénie immunitaire pédiatrique.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Thrombocytose.
 Augmentation de la réticuline dans la moelle osseuse.
@@ -619,8 +639,8 @@
 Risque d’immunogénicité (développement d’anticorps neutralisants interagissant avec la thrombopoïétine endogène).
 Risque de fibrose de la moelle osseuse.
 Risque d’hyperleucocytose et d’anémie.
-Risque d’insuffisance rénale[5].
-Les données disponibles d’une étude clinique randomisée réalisée chez des patients atteints de thrombopénie associée à un syndrome myélodysplasique (SMD), montrent une augmentation du nombre de cas de progression de la maladie en leucémie aiguë myéloïde (LAM) et des augmentations transitoires du nombre de cellules blastiques chez les patients traités par romiplostim par rapport au placebo[8].
+Risque d’insuffisance rénale.
+Les données disponibles d’une étude clinique randomisée réalisée chez des patients atteints de thrombopénie associée à un syndrome myélodysplasique (SMD), montrent une augmentation du nombre de cas de progression de la maladie en leucémie aiguë myéloïde (LAM) et des augmentations transitoires du nombre de cellules blastiques chez les patients traités par romiplostim par rapport au placebo.
 </t>
         </is>
       </c>
